--- a/hardware/constrs.xlsx
+++ b/hardware/constrs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\zynq7010_eink_controller\hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Zynq7010_eink_controller\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8603F695-8633-4D79-A1E5-19315F97C352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC6211D-41A9-4308-869D-2F18D88C40F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-220" yWindow="0" windowWidth="25820" windowHeight="14400" xr2:uid="{192633E4-4033-4C33-BE8C-C69E398757F4}"/>
   </bookViews>
@@ -568,13 +568,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACF3F0B-559B-4F43-876D-993989995C1E}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -934,17 +934,17 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="8"/>
+      <c r="H1" s="8"/>
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C2" s="2">
@@ -953,16 +953,16 @@
       <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>79</v>
       </c>
       <c r="R2" s="1"/>
@@ -971,7 +971,7 @@
       <c r="A3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
@@ -980,16 +980,16 @@
       <c r="D3" s="2">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>81</v>
       </c>
       <c r="R3" s="1"/>
@@ -998,7 +998,7 @@
       <c r="A4" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
@@ -1007,16 +1007,16 @@
       <c r="D4" s="2">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>84</v>
       </c>
       <c r="R4" s="1"/>
@@ -1025,7 +1025,7 @@
       <c r="A5" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
@@ -1034,7 +1034,7 @@
       <c r="D5" s="2">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1046,7 +1046,7 @@
       <c r="A6" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2">
@@ -1055,7 +1055,7 @@
       <c r="D6" s="2">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1065,7 +1065,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2">
@@ -1074,7 +1074,7 @@
       <c r="D7" s="2">
         <v>12</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="2"/>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2">
@@ -1091,7 +1091,7 @@
       <c r="D8" s="2">
         <v>14</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1101,7 +1101,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2">
@@ -1110,7 +1110,7 @@
       <c r="D9" s="2">
         <v>16</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1120,7 +1120,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2">
@@ -1129,7 +1129,7 @@
       <c r="D10" s="2">
         <v>18</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1139,7 +1139,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2">
@@ -1148,7 +1148,7 @@
       <c r="D11" s="2">
         <v>20</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1158,7 +1158,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2">
@@ -1167,7 +1167,7 @@
       <c r="D12" s="2">
         <v>22</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1177,7 +1177,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2">
@@ -1186,7 +1186,7 @@
       <c r="D13" s="2">
         <v>24</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1196,7 +1196,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="2">
@@ -1205,7 +1205,7 @@
       <c r="D14" s="2">
         <v>26</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1215,7 +1215,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2">
@@ -1224,7 +1224,7 @@
       <c r="D15" s="2">
         <v>28</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1234,7 +1234,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="2">
@@ -1243,15 +1243,15 @@
       <c r="D16" s="2">
         <v>30</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="5"/>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="2">
@@ -1260,7 +1260,7 @@
       <c r="D17" s="2">
         <v>32</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1270,7 +1270,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="2">
@@ -1279,7 +1279,7 @@
       <c r="D18" s="2">
         <v>34</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1291,7 +1291,7 @@
       <c r="A19" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="2">
@@ -1300,7 +1300,7 @@
       <c r="D19" s="2">
         <v>36</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1309,10 +1309,10 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="2">
@@ -1321,7 +1321,7 @@
       <c r="D20" s="2">
         <v>38</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -1333,7 +1333,7 @@
       <c r="A21" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2">
@@ -1342,7 +1342,7 @@
       <c r="D21" s="2">
         <v>40</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -1364,7 +1364,7 @@
       <c r="A23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="2">
@@ -1373,7 +1373,7 @@
       <c r="D23" s="2">
         <v>2</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="7" t="s">
         <v>58</v>
       </c>
       <c r="F23" s="2"/>
@@ -1382,7 +1382,7 @@
       <c r="A24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="2">
@@ -1391,7 +1391,7 @@
       <c r="D24" s="2">
         <v>4</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="7" t="s">
         <v>59</v>
       </c>
       <c r="F24" s="2"/>
@@ -1400,7 +1400,7 @@
       <c r="A25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="2">
@@ -1409,7 +1409,7 @@
       <c r="D25" s="2">
         <v>6</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="7" t="s">
         <v>60</v>
       </c>
       <c r="F25" s="2"/>
@@ -1418,7 +1418,7 @@
       <c r="A26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="2">
@@ -1427,7 +1427,7 @@
       <c r="D26" s="2">
         <v>8</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F26" s="2"/>
@@ -1436,7 +1436,7 @@
       <c r="A27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="2">
@@ -1445,14 +1445,14 @@
       <c r="D27" s="2">
         <v>10</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="2">
@@ -1461,16 +1461,16 @@
       <c r="D28" s="2">
         <v>12</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="6"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="2">
@@ -1479,7 +1479,7 @@
       <c r="D29" s="2">
         <v>14</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F29" s="2"/>
@@ -1488,7 +1488,7 @@
       <c r="A30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C30" s="2">
@@ -1497,7 +1497,7 @@
       <c r="D30" s="2">
         <v>16</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="7" t="s">
         <v>64</v>
       </c>
       <c r="F30" s="2"/>
@@ -1506,7 +1506,7 @@
       <c r="A31" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="2">
@@ -1515,7 +1515,7 @@
       <c r="D31" s="2">
         <v>18</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="7" t="s">
         <v>65</v>
       </c>
       <c r="F31" s="2"/>
@@ -1524,7 +1524,7 @@
       <c r="A32" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="2">
@@ -1533,7 +1533,7 @@
       <c r="D32" s="2">
         <v>20</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F32" s="2"/>
@@ -1542,7 +1542,7 @@
       <c r="A33" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="2">
@@ -1551,7 +1551,7 @@
       <c r="D33" s="2">
         <v>22</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="7" t="s">
         <v>67</v>
       </c>
       <c r="F33" s="2"/>
@@ -1560,7 +1560,7 @@
       <c r="A34" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="2">
@@ -1569,7 +1569,7 @@
       <c r="D34" s="2">
         <v>24</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F34" s="2"/>
@@ -1578,7 +1578,7 @@
       <c r="A35" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C35" s="2">
@@ -1587,7 +1587,7 @@
       <c r="D35" s="2">
         <v>26</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F35" s="2"/>
@@ -1596,7 +1596,7 @@
       <c r="A36" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C36" s="2">
@@ -1605,14 +1605,14 @@
       <c r="D36" s="2">
         <v>28</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="2">
@@ -1621,16 +1621,16 @@
       <c r="D37" s="2">
         <v>30</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="6"/>
+      <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C38" s="2">
@@ -1639,7 +1639,7 @@
       <c r="D38" s="2">
         <v>32</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F38" s="2"/>
@@ -1648,7 +1648,7 @@
       <c r="A39" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C39" s="2">
@@ -1657,7 +1657,7 @@
       <c r="D39" s="2">
         <v>34</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F39" s="2"/>
@@ -1666,7 +1666,7 @@
       <c r="A40" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="2">
@@ -1675,14 +1675,14 @@
       <c r="D40" s="2">
         <v>36</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C41" s="2">
@@ -1691,14 +1691,14 @@
       <c r="D41" s="2">
         <v>38</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C42" s="2">
@@ -1707,7 +1707,7 @@
       <c r="D42" s="2">
         <v>40</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="7" t="s">
         <v>75</v>
       </c>
       <c r="F42" s="2" t="s">
@@ -1716,7 +1716,7 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A22:F22"/>
   </mergeCells>
